--- a/branches/version-1/StructureDefinition-datetime-item.xlsx
+++ b/branches/version-1/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:10:48+00:00</t>
+    <t>2022-05-03T15:15:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-datetime-item.xlsx
+++ b/branches/version-1/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:15:42+00:00</t>
+    <t>2022-05-03T16:40:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-datetime-item.xlsx
+++ b/branches/version-1/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T16:40:40+00:00</t>
+    <t>2022-05-03T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-datetime-item.xlsx
+++ b/branches/version-1/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T16:58:51+00:00</t>
+    <t>2022-05-03T18:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
